--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 13,52</t>
+          <t>-16,0; 14,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 13,54</t>
+          <t>-15,48; 12,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 6,08</t>
+          <t>-26,31; 6,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 5,88</t>
+          <t>-20,38; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 43,46</t>
+          <t>-32,54; 42,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 51,16</t>
+          <t>-36,21; 44,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 19,17</t>
+          <t>-55,82; 19,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,26; 40,74</t>
+          <t>-68,1; 38,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 4,81</t>
+          <t>-5,8; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,14</t>
+          <t>-5,53; 6,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,26</t>
+          <t>-6,49; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,72</t>
+          <t>-1,4; 10,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 19,56</t>
+          <t>-19,91; 20,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 20,98</t>
+          <t>-13,67; 19,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 16,76</t>
+          <t>-17,13; 15,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 60,49</t>
+          <t>-8,38; 71,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 10,88</t>
+          <t>-6,57; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 8,94</t>
+          <t>-12,34; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 6,31</t>
+          <t>-13,86; 5,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 9,17</t>
+          <t>-6,01; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 54,7</t>
+          <t>-22,58; 49,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 25,42</t>
+          <t>-25,88; 21,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 17,34</t>
+          <t>-28,95; 14,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 62,88</t>
+          <t>-26,66; 65,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,9</t>
+          <t>-4,39; 4,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,65</t>
+          <t>-5,16; 5,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,28</t>
+          <t>-7,11; 2,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,42</t>
+          <t>-2,29; 6,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 19,6</t>
+          <t>-14,71; 16,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 12,96</t>
+          <t>-12,5; 14,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 6,38</t>
+          <t>-18,14; 6,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 39,97</t>
+          <t>-12,54; 40,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>-42,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 14,99</t>
+          <t>-16,49; 14,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 12,22</t>
+          <t>-15,65; 13,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 6,64</t>
+          <t>-25,48; 7,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 5,61</t>
+          <t>-23,64; 3,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 42,71</t>
+          <t>-33,83; 42,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 44,31</t>
+          <t>-35,53; 47,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 19,07</t>
+          <t>-53,16; 29,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,1; 38,95</t>
+          <t>-73,47; 25,26</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>42,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,9</t>
+          <t>-6,16; 4,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,64</t>
+          <t>-5,08; 7,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,02</t>
+          <t>-6,28; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 10,16</t>
+          <t>0,32; 21,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 20,03</t>
+          <t>-20,76; 17,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 19,55</t>
+          <t>-12,7; 20,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 15,41</t>
+          <t>-16,37; 15,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 71,61</t>
+          <t>1,68; 156,97</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 10,13</t>
+          <t>-6,86; 10,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 7,68</t>
+          <t>-12,46; 7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 5,59</t>
+          <t>-13,04; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 9,26</t>
+          <t>-6,55; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 49,34</t>
+          <t>-24,07; 49,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 21,15</t>
+          <t>-26,49; 20,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 14,36</t>
+          <t>-27,82; 14,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 65,73</t>
+          <t>-29,57; 55,99</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,36</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 5,12</t>
+          <t>-5,4; 4,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,13</t>
+          <t>-7,02; 2,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,45</t>
+          <t>-0,51; 15,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 16,58</t>
+          <t>-14,08; 17,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 14,13</t>
+          <t>-12,86; 14,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 6,14</t>
+          <t>-17,94; 7,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 40,47</t>
+          <t>-3,17; 94,72</t>
         </is>
       </c>
     </row>
